--- a/data/outputs/management/35.xlsx
+++ b/data/outputs/management/35.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ27"/>
+  <dimension ref="A1:BR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1323,6 +1330,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1540,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1741,6 +1750,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1946,6 +1956,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2147,6 +2158,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2356,6 +2368,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2565,6 +2578,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2754,6 +2768,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2955,6 +2970,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3164,6 +3180,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3365,6 +3382,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3574,6 +3592,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3779,6 +3798,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>3905574</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3865,7 +3889,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Garcia, Francisco/0000-0003-1715-3954; Valle-Alvarez, Sandra/0000-0003-3288-2194; Valle, Sandra/0000-0003-3288-2194; </t>
+          <t>Garcia, Francisco/0000-0003-1715-3954; Valle-Alvarez, Sandra/0000-0003-3288-2194; Valle, Sandra/0000-0003-3288-2194;</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3996,6 +4020,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4189,6 +4214,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4390,6 +4416,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4607,6 +4634,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3926789</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4816,6 +4848,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5017,6 +5050,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5226,6 +5260,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5435,6 +5470,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5640,6 +5676,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>3519184</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5829,6 +5870,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6034,6 +6076,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
